--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="5"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>run</t>
   </si>
@@ -69,9 +69,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,6 +82,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -89,6 +135,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -96,15 +150,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,109 +197,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,175 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,15 +448,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -477,27 +468,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,6 +488,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +526,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,130 +562,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1042,24 +1042,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1091,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1096,34 +1108,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1168,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1151,34 +1181,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1241,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1206,34 +1254,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1247,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1261,34 +1327,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1386,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>run</t>
   </si>
@@ -46,15 +46,18 @@
   <si>
     <t>test_intro_page.py</t>
   </si>
+  <si>
+    <t>test_dummy.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -66,8 +69,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -75,14 +93,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,37 +157,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,68 +169,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,181 +228,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +413,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,21 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +489,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,23 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,27 +513,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,130 +534,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +987,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1002,12 +1005,9 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1061,12 +1061,9 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1215,13 +1212,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" customWidth="1"/>
@@ -1240,6 +1237,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
+    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>run</t>
   </si>
@@ -55,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -70,7 +70,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,29 +86,83 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,58 +178,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -176,38 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,79 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,97 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,56 +416,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +446,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,21 +513,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,127 +537,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,8 +986,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1005,9 +1005,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1025,9 +1028,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1046,11 +1052,15 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1061,34 +1071,52 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1237,12 +1265,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
@@ -18,15 +18,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
-  <si>
-    <t>run</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
     <t>test_1.py</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
   <si>
     <t>test_2.py</t>
@@ -44,6 +47,9 @@
     <t>test_6.py</t>
   </si>
   <si>
+    <t>test_7.py</t>
+  </si>
+  <si>
     <t>test_intro_page.py</t>
   </si>
   <si>
@@ -55,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -69,6 +75,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -76,47 +90,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,14 +106,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,8 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -200,14 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,25 +234,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,151 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,10 +424,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -438,15 +442,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +508,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,10 +540,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,118 +552,118 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,7 +993,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1010,35 +1016,32 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1052,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1071,52 +1074,34 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1128,13 +1113,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1150,29 +1139,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1206,29 +1206,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1242,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1262,12 +1265,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="1"/>
+    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="retention" sheetId="7" r:id="rId3"/>
     <sheet name="call_service" sheetId="8" r:id="rId4"/>
     <sheet name="google" sheetId="9" r:id="rId5"/>
+    <sheet name="gov" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>test</t>
   </si>
@@ -27,9 +28,6 @@
   </si>
   <si>
     <t>test_1.py</t>
-  </si>
-  <si>
-    <t>run</t>
   </si>
   <si>
     <t>test_2.py</t>
@@ -55,6 +53,12 @@
   <si>
     <t>test_dummy.py</t>
   </si>
+  <si>
+    <t>test_sanity.py</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
 </sst>
 </file>
 
@@ -75,23 +79,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,46 +164,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,13 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -198,22 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,181 +238,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,10 +426,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -446,17 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +523,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,130 +544,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,7 +997,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1011,37 +1015,34 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +1056,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1081,27 +1082,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1117,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1139,40 +1140,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1182,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1206,32 +1201,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1238,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1265,12 +1257,49 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,10 @@
     <t>test_7.py</t>
   </si>
   <si>
-    <t>test_intro_page.py</t>
+    <t>test_log_jira.py</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
   <si>
     <t>test_dummy.py</t>
@@ -60,19 +63,16 @@
   <si>
     <t>test_player_data.py</t>
   </si>
-  <si>
-    <t>run</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,11 +97,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,45 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,6 +174,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -175,20 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -197,31 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,175 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,11 +430,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,50 +484,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,12 +533,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1241,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1259,14 +1259,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1314,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1332,11 +1335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808" activeTab="4"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="recording_profile" sheetId="5" r:id="rId1"/>
@@ -49,10 +49,10 @@
     <t>test_7.py</t>
   </si>
   <si>
-    <t>test_log_jira.py</t>
+    <t>run</t>
   </si>
   <si>
-    <t>run</t>
+    <t>test_log_jira.py</t>
   </si>
   <si>
     <t>test_dummy.py</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,19 +84,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -105,15 +121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,22 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -174,31 +168,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -207,21 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,181 +242,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,30 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +441,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,18 +475,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +530,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1200,9 +1200,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1241,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1259,11 +1262,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,48 +68,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,13 +161,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -184,14 +169,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +227,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,103 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,15 +504,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -515,7 +515,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,130 +533,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1047,7 +1047,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B16">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
+    <sheet name="tipalti" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -25,10 +26,10 @@
     <t>dummy.py</t>
   </si>
   <si>
-    <t>test_intro_page.py</t>
+    <t>RUN</t>
   </si>
   <si>
-    <t>RUN</t>
+    <t>test_intro_page.py</t>
   </si>
   <si>
     <t>Navigation.py</t>
@@ -48,16 +49,19 @@
   <si>
     <t>test_write_excel.py</t>
   </si>
+  <si>
+    <t>test_intro.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,14 +80,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,30 +89,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +103,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,19 +180,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,46 +202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +231,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,43 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,97 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +416,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,21 +439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,11 +467,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,21 +516,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,130 +537,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1002,32 +1006,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1047,7 +1063,48 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B6 B7:B9 B10:B16">
+      <formula1>"RUN"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -26,31 +26,31 @@
     <t>dummy.py</t>
   </si>
   <si>
+    <t>test_intro_page.py</t>
+  </si>
+  <si>
+    <t>Navigation.py</t>
+  </si>
+  <si>
+    <t>test_dummy.py</t>
+  </si>
+  <si>
+    <t>test_dummy2.py</t>
+  </si>
+  <si>
+    <t>test_log_jira.py</t>
+  </si>
+  <si>
+    <t>test_navigation.py</t>
+  </si>
+  <si>
+    <t>test_write_excel.py</t>
+  </si>
+  <si>
+    <t>test_intro.py</t>
+  </si>
+  <si>
     <t>RUN</t>
-  </si>
-  <si>
-    <t>test_intro_page.py</t>
-  </si>
-  <si>
-    <t>Navigation.py</t>
-  </si>
-  <si>
-    <t>test_dummy.py</t>
-  </si>
-  <si>
-    <t>test_dummy2.py</t>
-  </si>
-  <si>
-    <t>test_log_jira.py</t>
-  </si>
-  <si>
-    <t>test_navigation.py</t>
-  </si>
-  <si>
-    <t>test_write_excel.py</t>
-  </si>
-  <si>
-    <t>test_intro.py</t>
   </si>
 </sst>
 </file>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,22 +73,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,8 +94,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,9 +147,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,17 +171,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,59 +202,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,127 +231,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,49 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,8 +422,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,40 +491,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -492,42 +516,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,130 +537,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,8 +988,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1006,59 +1006,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1062,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1096,10 +1081,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="1"/>
+    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <t>test_dummy.py</t>
   </si>
   <si>
+    <t>RUN</t>
+  </si>
+  <si>
     <t>test_dummy2.py</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>test_intro.py</t>
-  </si>
-  <si>
-    <t>RUN</t>
   </si>
 </sst>
 </file>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,52 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -155,9 +117,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +148,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -179,14 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,23 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,175 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,20 +428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +478,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,159 +510,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,14 +988,14 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1021,34 +1021,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B6 B7:B9 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B9 B10:B16">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1062,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1079,11 +1082,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" tabRatio="808"/>
+    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <t>test_intro_page.py</t>
   </si>
   <si>
+    <t>RUN</t>
+  </si>
+  <si>
     <t>Navigation.py</t>
   </si>
   <si>
     <t>test_dummy.py</t>
-  </si>
-  <si>
-    <t>RUN</t>
   </si>
   <si>
     <t>test_dummy2.py</t>
@@ -59,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -86,9 +94,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,13 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -117,24 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,14 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -165,19 +158,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +189,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,15 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,19 +237,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,151 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,26 +458,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -519,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1011,21 +1011,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
+    <workbookView windowWidth="19725" windowHeight="7695" tabRatio="808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -26,10 +26,10 @@
     <t>dummy.py</t>
   </si>
   <si>
-    <t>test_intro_page.py</t>
+    <t>RUN</t>
   </si>
   <si>
-    <t>RUN</t>
+    <t>test_intro_page.py</t>
   </si>
   <si>
     <t>Navigation.py</t>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +72,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,6 +95,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -88,6 +128,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -95,23 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,76 +172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -231,6 +231,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -243,13 +249,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,139 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,9 +451,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,49 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,23 +511,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,130 +537,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,8 +988,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1006,52 +1006,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B9 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B16">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1065,7 +1086,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1082,9 +1103,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -29,28 +29,28 @@
     <t>test_intro_page.py</t>
   </si>
   <si>
+    <t>Navigation.py</t>
+  </si>
+  <si>
+    <t>test_dummy.py</t>
+  </si>
+  <si>
+    <t>test_dummy2.py</t>
+  </si>
+  <si>
+    <t>test_log_jira.py</t>
+  </si>
+  <si>
+    <t>test_navigation.py</t>
+  </si>
+  <si>
+    <t>test_write_excel.py</t>
+  </si>
+  <si>
+    <t>test_intro.py</t>
+  </si>
+  <si>
     <t>RUN</t>
-  </si>
-  <si>
-    <t>Navigation.py</t>
-  </si>
-  <si>
-    <t>test_dummy.py</t>
-  </si>
-  <si>
-    <t>test_dummy2.py</t>
-  </si>
-  <si>
-    <t>test_log_jira.py</t>
-  </si>
-  <si>
-    <t>test_navigation.py</t>
-  </si>
-  <si>
-    <t>test_write_excel.py</t>
-  </si>
-  <si>
-    <t>test_intro.py</t>
   </si>
 </sst>
 </file>
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -87,17 +125,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,7 +151,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,11 +180,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,32 +195,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,43 +211,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,181 +231,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,80 +511,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -519,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1011,47 +1011,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B9 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B9 B10:B16">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1066,7 +1063,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1082,8 +1079,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="808"/>
+    <workbookView windowWidth="27952" windowHeight="11880" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -56,11 +56,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -72,38 +72,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,19 +103,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,37 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -180,6 +127,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -187,30 +202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,181 +231,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,11 +436,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,24 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,151 +505,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -670,52 +670,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -989,13 +989,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="10.8761904761905" customWidth="1"/>
+    <col min="1" max="1" width="20.716814159292" customWidth="1"/>
+    <col min="2" max="2" width="10.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1048,7 +1048,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B9 B10:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B9 B10:B16">
       <formula1>"RUN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1063,12 +1063,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="27.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="11880" tabRatio="808"/>
+    <workbookView windowWidth="27952" windowHeight="12330" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>dummy.py</t>
+  </si>
+  <si>
+    <t>RUN</t>
   </si>
   <si>
     <t>test_intro_page.py</t>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>test_intro.py</t>
-  </si>
-  <si>
-    <t>RUN</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1006,44 +1006,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1105,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/test_suite.xlsx
+++ b/tests/_data/test_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12330" tabRatio="808"/>
+    <workbookView windowWidth="19545" windowHeight="7530" tabRatio="808"/>
   </bookViews>
   <sheets>
     <sheet name="google" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -26,31 +26,31 @@
     <t>dummy.py</t>
   </si>
   <si>
+    <t>test_intro_page.py</t>
+  </si>
+  <si>
+    <t>Navigation.py</t>
+  </si>
+  <si>
+    <t>test_dummy.py</t>
+  </si>
+  <si>
+    <t>test_dummy2.py</t>
+  </si>
+  <si>
+    <t>test_log_jira.py</t>
+  </si>
+  <si>
+    <t>test_navigation.py</t>
+  </si>
+  <si>
+    <t>test_write_excel.py</t>
+  </si>
+  <si>
+    <t>test_intro.py</t>
+  </si>
+  <si>
     <t>RUN</t>
-  </si>
-  <si>
-    <t>test_intro_page.py</t>
-  </si>
-  <si>
-    <t>Navigation.py</t>
-  </si>
-  <si>
-    <t>test_dummy.py</t>
-  </si>
-  <si>
-    <t>test_dummy2.py</t>
-  </si>
-  <si>
-    <t>test_log_jira.py</t>
-  </si>
-  <si>
-    <t>test_navigation.py</t>
-  </si>
-  <si>
-    <t>test_write_excel.py</t>
-  </si>
-  <si>
-    <t>test_intro.py</t>
   </si>
 </sst>
 </file>
@@ -989,13 +989,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.716814159292" customWidth="1"/>
-    <col min="2" max="2" width="10.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1006,68 +1006,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1090,9 +1066,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.141592920354" customWidth="1"/>
+    <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1105,10 +1081,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
